--- a/天気予報アプリ仕様書.xlsx
+++ b/天気予報アプリ仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\handm\Documents\AndroidStudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\handm\Documents\AndroidStudio\WeatherApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F0F223-0064-4E6B-A4EA-7C5AE3130C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD01BE6-B4C8-478F-9C7C-F474A3C7D31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2866,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2887,7 +2886,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
